--- a/pubmed_validation_sheets/19733990 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/19733990 DISNET VALIDATION.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grard\Desktop\PUBMED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C30B39-4CB1-4D39-A98F-B3E5F085B77C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C8499-0AE3-D04B-ACB3-2D1F62F88503}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30B85506-E6F8-4F94-83A4-0375E737491A}"/>
+    <workbookView xWindow="38820" yWindow="460" windowWidth="20500" windowHeight="21140" xr2:uid="{30B85506-E6F8-4F94-83A4-0375E737491A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t>SO02.DOC2278.V2018-04-03.SEC11.T63.PAPERID19733990
 19733990 - A case of hypertensive encephalopathy with extensive spinal lesions on MRI.
@@ -186,15 +194,6 @@
   </si>
   <si>
     <t>[cgab]</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>Image (foundation metadata concept)</t>
-  </si>
-  <si>
-    <t>[inpr]</t>
   </si>
   <si>
     <t>weighted</t>
@@ -660,22 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -702,7 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -711,6 +694,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -720,15 +712,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,807 +1044,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FD733D-D6F7-4D84-BEE3-F2E2F4BA7487}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:14" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="b">
+      <c r="E4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="b">
+      <c r="E5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="b">
+      <c r="E6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="b">
+      <c r="E7" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="b">
+      <c r="E8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="15" t="b">
+      <c r="E9" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="b">
+      <c r="E10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15" t="b">
+      <c r="E11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15" t="b">
+      <c r="E12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="b">
+      <c r="E13" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="b">
+      <c r="E14" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="15" t="b">
+      <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="15" t="b">
+      <c r="E16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="15" t="b">
+      <c r="E17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="15" t="b">
+      <c r="E18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="15" t="b">
+      <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="15" t="b">
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="15" t="b">
+      <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="15" t="b">
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="15" t="b">
+      <c r="D23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="15" t="b">
+      <c r="C25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>22</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="F25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{6BBBDC8A-7B9B-D14C-911F-9377D922322B}">
+    <sortState ref="A4:I25">
+      <sortCondition ref="A3:A25"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
